--- a/Acquizioni/valori insieme/Media_concentrazioni.xlsx
+++ b/Acquizioni/valori insieme/Media_concentrazioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nrf_sdk\nRF5_SDK_17.1.0_ddde560\examples\Progetto_WearableAirMonitoring\Acquizioni\valori insieme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F01A0-2445-43ED-A01D-9E6DB99040B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0871F8-E1BC-433F-AEA4-88642FDEC1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{EA811552-15E2-4973-B871-4DE9CCD557AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EA811552-15E2-4973-B871-4DE9CCD557AF}"/>
   </bookViews>
   <sheets>
     <sheet name="VOC" sheetId="3" r:id="rId1"/>
@@ -181,11 +181,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Media</a:t>
+              <a:t>Mean </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> concentrazione tVOC</a:t>
+              <a:t>tVOC </a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -872,6 +872,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Static acquisition</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -920,6 +973,8 @@
         <c:axId val="1003378384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -937,6 +992,97 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>tVOC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[ppb]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5326797385620913E-2"/>
+              <c:y val="0.45318666666666668"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1090,11 +1236,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Media concentrazione CO</a:t>
+              <a:t>Mean CO</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="-25000"/>
-              <a:t>2</a:t>
+              <a:t>2 </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1780,6 +1926,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1050" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Static acquisition</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="500">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1845,6 +2051,84 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>CO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="-25000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [ppm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1977,6 +2261,70 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>Mean PM1.0 [µg/m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>]</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2629,6 +2977,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Static acquisition</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2694,6 +3102,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>PM1.0</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [µg/m3]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2737,6 +3215,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2816,11 +3325,29 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Media</a:t>
+              <a:t>Mean </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> concentrazione PM2.5</a:t>
+              <a:t>PM2.5 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>[µg/m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>]</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -3507,6 +4034,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Static acquisition</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43547941176470589"/>
+              <c:y val="0.90337472222222204"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3555,6 +4143,7 @@
         <c:axId val="1116703200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3572,6 +4161,102 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>PM2.5</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> [µg/m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" baseline="30000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3705,6 +4390,54 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> PM10 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>[µg/m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3713,26 +4446,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3742,7 +4455,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -3826,12 +4539,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{0000000E-5AF0-426B-AD59-3A74B849E7BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="8"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -3915,12 +4628,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{0000000F-5AF0-426B-AD59-3A74B849E7BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="9"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -4004,12 +4717,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000010-5AF0-426B-AD59-3A74B849E7BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="10"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -4093,12 +4806,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000011-5AF0-426B-AD59-3A74B849E7BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="11"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -4182,12 +4895,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000012-5AF0-426B-AD59-3A74B849E7BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="12"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -4271,12 +4984,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000013-5AF0-426B-AD59-3A74B849E7BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="13"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
@@ -4362,7 +5075,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000014-5AF0-426B-AD59-3A74B849E7BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4376,16 +5089,34 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-50"/>
-        <c:axId val="1013417503"/>
-        <c:axId val="1013415007"/>
+        <c:axId val="1116718592"/>
+        <c:axId val="1116703200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1013417503"/>
+        <c:axId val="1116718592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0"/>
+                  <a:t>Static acquisition</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4423,7 +5154,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013415007"/>
+        <c:crossAx val="1116703200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4431,7 +5162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1013415007"/>
+        <c:axId val="1116703200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,6 +5182,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>PM10 </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[µg/m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" baseline="30000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="400" b="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4482,20 +5279,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013417503"/>
+        <c:crossAx val="1116718592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4527,30 +5317,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -4729,46 +5498,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6781,523 +7510,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130993</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7335,10 +7561,10 @@
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>603120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129090</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7376,10 +7602,10 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>84960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>75750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7417,10 +7643,10 @@
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106230</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7458,10 +7684,10 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>465960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7788,8 +8014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD2E94E-2A0E-42ED-85FB-F526D1278B05}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8027,7 +8253,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8264,8 +8490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3B0577-A03F-4D71-AB5E-04B52DD67AF5}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8502,8 +8728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FE2CDC-D537-4EF1-B380-F50D4D7BD1E4}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8740,8 +8966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F773C78C-C19F-4747-970E-7875A370B4DC}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
